--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_64ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_64ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2127,28 +2127,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1495.60552820344</v>
+        <v>1730.428553465315</v>
       </c>
       <c r="AB2" t="n">
-        <v>2046.353465147113</v>
+        <v>2367.648687971137</v>
       </c>
       <c r="AC2" t="n">
-        <v>1851.052362508599</v>
+        <v>2141.683620206975</v>
       </c>
       <c r="AD2" t="n">
-        <v>1495605.52820344</v>
+        <v>1730428.553465315</v>
       </c>
       <c r="AE2" t="n">
-        <v>2046353.465147113</v>
+        <v>2367648.687971137</v>
       </c>
       <c r="AF2" t="n">
         <v>3.325672536763413e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.19401041666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1851052.362508599</v>
+        <v>2141683.620206975</v>
       </c>
     </row>
     <row r="3">
@@ -2233,28 +2233,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>759.837838677051</v>
+        <v>906.5983379245719</v>
       </c>
       <c r="AB3" t="n">
-        <v>1039.643652557543</v>
+        <v>1240.447842244272</v>
       </c>
       <c r="AC3" t="n">
-        <v>940.4215215064811</v>
+        <v>1122.061241159959</v>
       </c>
       <c r="AD3" t="n">
-        <v>759837.838677051</v>
+        <v>906598.3379245718</v>
       </c>
       <c r="AE3" t="n">
-        <v>1039643.652557543</v>
+        <v>1240447.842244272</v>
       </c>
       <c r="AF3" t="n">
         <v>5.22609128321546e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.03255208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>940421.5215064811</v>
+        <v>1122061.241159959</v>
       </c>
     </row>
     <row r="4">
@@ -2339,28 +2339,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>611.4055547067812</v>
+        <v>738.5890114136054</v>
       </c>
       <c r="AB4" t="n">
-        <v>836.5520532592119</v>
+        <v>1010.570069663598</v>
       </c>
       <c r="AC4" t="n">
-        <v>756.7126994043329</v>
+        <v>914.1226805589048</v>
       </c>
       <c r="AD4" t="n">
-        <v>611405.5547067813</v>
+        <v>738589.0114136054</v>
       </c>
       <c r="AE4" t="n">
-        <v>836552.0532592119</v>
+        <v>1010570.069663598</v>
       </c>
       <c r="AF4" t="n">
         <v>5.969817254648235e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.2890625</v>
       </c>
       <c r="AH4" t="n">
-        <v>756712.6994043329</v>
+        <v>914122.6805589048</v>
       </c>
     </row>
     <row r="5">
@@ -2445,19 +2445,19 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>548.4161268997867</v>
+        <v>675.6327379955344</v>
       </c>
       <c r="AB5" t="n">
-        <v>750.3671392362519</v>
+        <v>924.430518938232</v>
       </c>
       <c r="AC5" t="n">
-        <v>678.7531526144375</v>
+        <v>836.2041676571484</v>
       </c>
       <c r="AD5" t="n">
-        <v>548416.1268997868</v>
+        <v>675632.7379955344</v>
       </c>
       <c r="AE5" t="n">
-        <v>750367.1392362519</v>
+        <v>924430.518938232</v>
       </c>
       <c r="AF5" t="n">
         <v>6.27887939253375e-06</v>
@@ -2466,7 +2466,7 @@
         <v>25</v>
       </c>
       <c r="AH5" t="n">
-        <v>678753.1526144375</v>
+        <v>836204.1676571484</v>
       </c>
     </row>
     <row r="6">
@@ -2551,19 +2551,19 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>549.8245911744348</v>
+        <v>677.0412022701825</v>
       </c>
       <c r="AB6" t="n">
-        <v>752.2942621938838</v>
+        <v>926.3576418958639</v>
       </c>
       <c r="AC6" t="n">
-        <v>680.4963536617271</v>
+        <v>837.947368704438</v>
       </c>
       <c r="AD6" t="n">
-        <v>549824.5911744348</v>
+        <v>677041.2022701824</v>
       </c>
       <c r="AE6" t="n">
-        <v>752294.2621938838</v>
+        <v>926357.6418958639</v>
       </c>
       <c r="AF6" t="n">
         <v>6.278156158201726e-06</v>
@@ -2572,7 +2572,7 @@
         <v>25</v>
       </c>
       <c r="AH6" t="n">
-        <v>680496.353661727</v>
+        <v>837947.368704438</v>
       </c>
     </row>
   </sheetData>
@@ -2848,28 +2848,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1075.338866024772</v>
+        <v>1278.56206733948</v>
       </c>
       <c r="AB2" t="n">
-        <v>1471.326077097672</v>
+        <v>1749.38502671134</v>
       </c>
       <c r="AC2" t="n">
-        <v>1330.904781318589</v>
+        <v>1582.426175039315</v>
       </c>
       <c r="AD2" t="n">
-        <v>1075338.866024772</v>
+        <v>1278562.06733948</v>
       </c>
       <c r="AE2" t="n">
-        <v>1471326.077097673</v>
+        <v>1749385.02671134</v>
       </c>
       <c r="AF2" t="n">
         <v>4.336870035962643e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.60286458333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1330904.781318589</v>
+        <v>1582426.175039315</v>
       </c>
     </row>
     <row r="3">
@@ -2954,28 +2954,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>616.4729826390748</v>
+        <v>752.0006707405884</v>
       </c>
       <c r="AB3" t="n">
-        <v>843.4855317153181</v>
+        <v>1028.920493635427</v>
       </c>
       <c r="AC3" t="n">
-        <v>762.9844564077864</v>
+        <v>930.7217658218439</v>
       </c>
       <c r="AD3" t="n">
-        <v>616472.9826390748</v>
+        <v>752000.6707405883</v>
       </c>
       <c r="AE3" t="n">
-        <v>843485.5317153181</v>
+        <v>1028920.493635427</v>
       </c>
       <c r="AF3" t="n">
         <v>6.230310405656691e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.56510416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>762984.4564077865</v>
+        <v>930721.7658218439</v>
       </c>
     </row>
     <row r="4">
@@ -3060,28 +3060,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>531.9072925321636</v>
+        <v>657.652946257084</v>
       </c>
       <c r="AB4" t="n">
-        <v>727.7790237360999</v>
+        <v>899.8297746692547</v>
       </c>
       <c r="AC4" t="n">
-        <v>658.3208151550009</v>
+        <v>813.9512838938409</v>
       </c>
       <c r="AD4" t="n">
-        <v>531907.2925321637</v>
+        <v>657652.9462570839</v>
       </c>
       <c r="AE4" t="n">
-        <v>727779.0237360999</v>
+        <v>899829.7746692547</v>
       </c>
       <c r="AF4" t="n">
         <v>6.788213217289864e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.29947916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>658320.8151550009</v>
+        <v>813951.283893841</v>
       </c>
     </row>
     <row r="5">
@@ -3166,28 +3166,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>533.3669062380401</v>
+        <v>659.1125599629604</v>
       </c>
       <c r="AB5" t="n">
-        <v>729.7761316020922</v>
+        <v>901.8268825352469</v>
       </c>
       <c r="AC5" t="n">
-        <v>660.1273218492214</v>
+        <v>815.7577905880613</v>
       </c>
       <c r="AD5" t="n">
-        <v>533366.9062380401</v>
+        <v>659112.5599629604</v>
       </c>
       <c r="AE5" t="n">
-        <v>729776.1316020922</v>
+        <v>901826.8825352469</v>
       </c>
       <c r="AF5" t="n">
         <v>6.787685649619289e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.29947916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>660127.3218492214</v>
+        <v>815757.7905880613</v>
       </c>
     </row>
   </sheetData>
@@ -3463,28 +3463,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>512.8671062491414</v>
+        <v>643.7765307976082</v>
       </c>
       <c r="AB2" t="n">
-        <v>701.7274008699336</v>
+        <v>880.8434508533556</v>
       </c>
       <c r="AC2" t="n">
-        <v>634.7555226114993</v>
+        <v>796.7769881754587</v>
       </c>
       <c r="AD2" t="n">
-        <v>512867.1062491414</v>
+        <v>643776.5307976082</v>
       </c>
       <c r="AE2" t="n">
-        <v>701727.4008699337</v>
+        <v>880843.4508533557</v>
       </c>
       <c r="AF2" t="n">
         <v>8.538211210113218e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.07291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>634755.5226114993</v>
+        <v>796776.9881754586</v>
       </c>
     </row>
     <row r="3">
@@ -3569,28 +3569,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>514.8469884419135</v>
+        <v>645.7564129903803</v>
       </c>
       <c r="AB3" t="n">
-        <v>704.4363630323223</v>
+        <v>883.5524130157444</v>
       </c>
       <c r="AC3" t="n">
-        <v>637.2059452271619</v>
+        <v>799.2274107911212</v>
       </c>
       <c r="AD3" t="n">
-        <v>514846.9884419135</v>
+        <v>645756.4129903803</v>
       </c>
       <c r="AE3" t="n">
-        <v>704436.3630323224</v>
+        <v>883552.4130157444</v>
       </c>
       <c r="AF3" t="n">
         <v>8.535633914793218e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.0859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>637205.9452271619</v>
+        <v>799227.4107911212</v>
       </c>
     </row>
   </sheetData>
@@ -3866,28 +3866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>642.065155211857</v>
+        <v>793.7521118487385</v>
       </c>
       <c r="AB2" t="n">
-        <v>878.5018712763689</v>
+        <v>1086.046657303182</v>
       </c>
       <c r="AC2" t="n">
-        <v>794.6588856668717</v>
+        <v>982.3958886062226</v>
       </c>
       <c r="AD2" t="n">
-        <v>642065.1552118571</v>
+        <v>793752.1118487385</v>
       </c>
       <c r="AE2" t="n">
-        <v>878501.8712763689</v>
+        <v>1086046.657303182</v>
       </c>
       <c r="AF2" t="n">
         <v>6.76148994876496e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>794658.8856668717</v>
+        <v>982395.8886062226</v>
       </c>
     </row>
     <row r="3">
@@ -3972,28 +3972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>508.6589142310363</v>
+        <v>641.38073061096</v>
       </c>
       <c r="AB3" t="n">
-        <v>695.9695668984333</v>
+        <v>877.5654113427389</v>
       </c>
       <c r="AC3" t="n">
-        <v>629.5472082330682</v>
+        <v>793.8118001549777</v>
       </c>
       <c r="AD3" t="n">
-        <v>508658.9142310363</v>
+        <v>641380.7306109599</v>
       </c>
       <c r="AE3" t="n">
-        <v>695969.5668984333</v>
+        <v>877565.4113427389</v>
       </c>
       <c r="AF3" t="n">
         <v>7.813688233727913e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.56901041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>629547.2082330682</v>
+        <v>793811.8001549777</v>
       </c>
     </row>
   </sheetData>
@@ -4269,28 +4269,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>526.9795971677743</v>
+        <v>665.6809252277275</v>
       </c>
       <c r="AB2" t="n">
-        <v>721.0367335439659</v>
+        <v>910.8140096663253</v>
       </c>
       <c r="AC2" t="n">
-        <v>652.2219996759404</v>
+        <v>823.8871989192618</v>
       </c>
       <c r="AD2" t="n">
-        <v>526979.5971677742</v>
+        <v>665680.9252277275</v>
       </c>
       <c r="AE2" t="n">
-        <v>721036.7335439658</v>
+        <v>910814.0096663253</v>
       </c>
       <c r="AF2" t="n">
         <v>9.116013144241868e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.1171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>652221.9996759404</v>
+        <v>823887.1989192618</v>
       </c>
     </row>
   </sheetData>
@@ -4566,28 +4566,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1168.573555532364</v>
+        <v>1372.359572981241</v>
       </c>
       <c r="AB2" t="n">
-        <v>1598.893892506164</v>
+        <v>1877.722911984296</v>
       </c>
       <c r="AC2" t="n">
-        <v>1446.297703467048</v>
+        <v>1698.515672665173</v>
       </c>
       <c r="AD2" t="n">
-        <v>1168573.555532364</v>
+        <v>1372359.572981241</v>
       </c>
       <c r="AE2" t="n">
-        <v>1598893.892506164</v>
+        <v>1877722.911984296</v>
       </c>
       <c r="AF2" t="n">
         <v>4.055775420472563e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.32161458333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1446297.703467048</v>
+        <v>1698515.672665173</v>
       </c>
     </row>
     <row r="3">
@@ -4672,28 +4672,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>653.7354388705469</v>
+        <v>789.5931208464173</v>
       </c>
       <c r="AB3" t="n">
-        <v>894.4696682347665</v>
+        <v>1080.356142332073</v>
       </c>
       <c r="AC3" t="n">
-        <v>809.1027384945036</v>
+        <v>977.2484683972679</v>
       </c>
       <c r="AD3" t="n">
-        <v>653735.4388705469</v>
+        <v>789593.1208464173</v>
       </c>
       <c r="AE3" t="n">
-        <v>894469.6682347665</v>
+        <v>1080356.142332073</v>
       </c>
       <c r="AF3" t="n">
         <v>5.95161103685873e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.15755208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>809102.7384945035</v>
+        <v>977248.4683972679</v>
       </c>
     </row>
     <row r="4">
@@ -4778,28 +4778,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>540.2660427132938</v>
+        <v>666.3806305715565</v>
       </c>
       <c r="AB4" t="n">
-        <v>739.2158344959543</v>
+        <v>911.7713773865735</v>
       </c>
       <c r="AC4" t="n">
-        <v>668.6661127475994</v>
+        <v>824.7531968079634</v>
       </c>
       <c r="AD4" t="n">
-        <v>540266.0427132938</v>
+        <v>666380.6305715565</v>
       </c>
       <c r="AE4" t="n">
-        <v>739215.8344959542</v>
+        <v>911771.3773865735</v>
       </c>
       <c r="AF4" t="n">
         <v>6.628088429915464e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.28645833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>668666.1127475994</v>
+        <v>824753.1968079634</v>
       </c>
     </row>
     <row r="5">
@@ -4884,28 +4884,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>540.4226205900477</v>
+        <v>666.5372084483104</v>
       </c>
       <c r="AB5" t="n">
-        <v>739.4300712546574</v>
+        <v>911.9856141452766</v>
       </c>
       <c r="AC5" t="n">
-        <v>668.8599030507351</v>
+        <v>824.946987111099</v>
       </c>
       <c r="AD5" t="n">
-        <v>540422.6205900477</v>
+        <v>666537.2084483104</v>
       </c>
       <c r="AE5" t="n">
-        <v>739430.0712546573</v>
+        <v>911985.6141452766</v>
       </c>
       <c r="AF5" t="n">
         <v>6.636068186074047e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.25390625</v>
       </c>
       <c r="AH5" t="n">
-        <v>668859.903050735</v>
+        <v>824946.9871110991</v>
       </c>
     </row>
   </sheetData>
@@ -5181,28 +5181,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>538.5781300956572</v>
+        <v>694.73161143128</v>
       </c>
       <c r="AB2" t="n">
-        <v>736.9063579870547</v>
+        <v>950.5624401558487</v>
       </c>
       <c r="AC2" t="n">
-        <v>666.5770494353387</v>
+        <v>859.8420949901375</v>
       </c>
       <c r="AD2" t="n">
-        <v>538578.1300956572</v>
+        <v>694731.61143128</v>
       </c>
       <c r="AE2" t="n">
-        <v>736906.3579870546</v>
+        <v>950562.4401558486</v>
       </c>
       <c r="AF2" t="n">
         <v>9.388588498915771e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.99869791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>666577.0494353387</v>
+        <v>859842.0949901375</v>
       </c>
     </row>
   </sheetData>
@@ -5478,28 +5478,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>837.0653071598246</v>
+        <v>1009.623129845719</v>
       </c>
       <c r="AB2" t="n">
-        <v>1145.309681971127</v>
+        <v>1381.410907683825</v>
       </c>
       <c r="AC2" t="n">
-        <v>1036.002933376036</v>
+        <v>1249.570989476866</v>
       </c>
       <c r="AD2" t="n">
-        <v>837065.3071598245</v>
+        <v>1009623.129845719</v>
       </c>
       <c r="AE2" t="n">
-        <v>1145309.681971126</v>
+        <v>1381410.907683825</v>
       </c>
       <c r="AF2" t="n">
         <v>5.350215024337474e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.90234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1036002.933376036</v>
+        <v>1249570.989476866</v>
       </c>
     </row>
     <row r="3">
@@ -5584,28 +5584,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>518.2398926690714</v>
+        <v>652.4097748018125</v>
       </c>
       <c r="AB3" t="n">
-        <v>709.0786842802902</v>
+        <v>892.655836171753</v>
       </c>
       <c r="AC3" t="n">
-        <v>641.4052098507624</v>
+        <v>807.4620160178549</v>
       </c>
       <c r="AD3" t="n">
-        <v>518239.8926690714</v>
+        <v>652409.7748018126</v>
       </c>
       <c r="AE3" t="n">
-        <v>709078.6842802902</v>
+        <v>892655.836171753</v>
       </c>
       <c r="AF3" t="n">
         <v>7.209438408659327e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.8984375</v>
       </c>
       <c r="AH3" t="n">
-        <v>641405.2098507624</v>
+        <v>807462.0160178549</v>
       </c>
     </row>
     <row r="4">
@@ -5690,28 +5690,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>514.9149659086776</v>
+        <v>639.5647350953873</v>
       </c>
       <c r="AB4" t="n">
-        <v>704.5293728013031</v>
+        <v>875.0806861622646</v>
       </c>
       <c r="AC4" t="n">
-        <v>637.2900782743312</v>
+        <v>791.564213658394</v>
       </c>
       <c r="AD4" t="n">
-        <v>514914.9659086776</v>
+        <v>639564.7350953873</v>
       </c>
       <c r="AE4" t="n">
-        <v>704529.3728013032</v>
+        <v>875080.6861622646</v>
       </c>
       <c r="AF4" t="n">
         <v>7.258772938450033e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.72916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>637290.0782743312</v>
+        <v>791564.2136583941</v>
       </c>
     </row>
   </sheetData>
@@ -5987,28 +5987,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>988.2754884689865</v>
+        <v>1181.228966300024</v>
       </c>
       <c r="AB2" t="n">
-        <v>1352.202122960711</v>
+        <v>1616.209583835795</v>
       </c>
       <c r="AC2" t="n">
-        <v>1223.149850172939</v>
+        <v>1461.960809518904</v>
       </c>
       <c r="AD2" t="n">
-        <v>988275.4884689865</v>
+        <v>1181228.966300024</v>
       </c>
       <c r="AE2" t="n">
-        <v>1352202.122960711</v>
+        <v>1616209.583835796</v>
       </c>
       <c r="AF2" t="n">
         <v>4.641584133594066e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.97526041666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1223149.850172939</v>
+        <v>1461960.809518904</v>
       </c>
     </row>
     <row r="3">
@@ -6093,28 +6093,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>578.5517455132282</v>
+        <v>713.6328461624666</v>
       </c>
       <c r="AB3" t="n">
-        <v>791.6000221128249</v>
+        <v>976.4239433786832</v>
       </c>
       <c r="AC3" t="n">
-        <v>716.0508270199853</v>
+        <v>883.2354126422326</v>
       </c>
       <c r="AD3" t="n">
-        <v>578551.7455132282</v>
+        <v>713632.8461624667</v>
       </c>
       <c r="AE3" t="n">
-        <v>791600.022112825</v>
+        <v>976423.9433786833</v>
       </c>
       <c r="AF3" t="n">
         <v>6.545164280776748e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.93359375</v>
       </c>
       <c r="AH3" t="n">
-        <v>716050.8270199853</v>
+        <v>883235.4126422326</v>
       </c>
     </row>
     <row r="4">
@@ -6199,28 +6199,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>527.3962366816328</v>
+        <v>652.7589270897369</v>
       </c>
       <c r="AB4" t="n">
-        <v>721.6067981076651</v>
+        <v>893.1335617356028</v>
       </c>
       <c r="AC4" t="n">
-        <v>652.7376580777708</v>
+        <v>807.8941481243828</v>
       </c>
       <c r="AD4" t="n">
-        <v>527396.2366816328</v>
+        <v>652758.9270897369</v>
       </c>
       <c r="AE4" t="n">
-        <v>721606.7981076651</v>
+        <v>893133.5617356028</v>
       </c>
       <c r="AF4" t="n">
         <v>6.921765046632403e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.46223958333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>652737.6580777708</v>
+        <v>807894.1481243828</v>
       </c>
     </row>
   </sheetData>
@@ -6496,28 +6496,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1378.279913066653</v>
+        <v>1602.723632305905</v>
       </c>
       <c r="AB2" t="n">
-        <v>1885.823382476128</v>
+        <v>2192.917180897335</v>
       </c>
       <c r="AC2" t="n">
-        <v>1705.843045622346</v>
+        <v>1983.628242931086</v>
       </c>
       <c r="AD2" t="n">
-        <v>1378279.913066653</v>
+        <v>1602723.632305905</v>
       </c>
       <c r="AE2" t="n">
-        <v>1885823.382476128</v>
+        <v>2192917.180897335</v>
       </c>
       <c r="AF2" t="n">
         <v>3.550990397649555e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>45.12369791666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1705843.045622346</v>
+        <v>1983628.242931086</v>
       </c>
     </row>
     <row r="3">
@@ -6602,28 +6602,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>720.0729256121584</v>
+        <v>866.4139650372409</v>
       </c>
       <c r="AB3" t="n">
-        <v>985.235544198005</v>
+        <v>1185.465810450413</v>
       </c>
       <c r="AC3" t="n">
-        <v>891.2060466465177</v>
+        <v>1072.326617312739</v>
       </c>
       <c r="AD3" t="n">
-        <v>720072.9256121584</v>
+        <v>866413.9650372409</v>
       </c>
       <c r="AE3" t="n">
-        <v>985235.544198005</v>
+        <v>1185465.810450413</v>
       </c>
       <c r="AF3" t="n">
         <v>5.455205306619239e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.375</v>
       </c>
       <c r="AH3" t="n">
-        <v>891206.0466465177</v>
+        <v>1072326.617312739</v>
       </c>
     </row>
     <row r="4">
@@ -6708,28 +6708,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>578.5911978995103</v>
+        <v>715.2025567367454</v>
       </c>
       <c r="AB4" t="n">
-        <v>791.6540026082527</v>
+        <v>978.5716906371546</v>
       </c>
       <c r="AC4" t="n">
-        <v>716.0996556926915</v>
+        <v>885.1781819167377</v>
       </c>
       <c r="AD4" t="n">
-        <v>578591.1978995104</v>
+        <v>715202.5567367454</v>
       </c>
       <c r="AE4" t="n">
-        <v>791654.0026082527</v>
+        <v>978571.6906371546</v>
       </c>
       <c r="AF4" t="n">
         <v>6.193067048520636e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.87239583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>716099.6556926914</v>
+        <v>885178.1819167377</v>
       </c>
     </row>
     <row r="5">
@@ -6814,28 +6814,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>550.9764372864892</v>
+        <v>668.09730261882</v>
       </c>
       <c r="AB5" t="n">
-        <v>753.8702688602607</v>
+        <v>914.1202038158649</v>
       </c>
       <c r="AC5" t="n">
-        <v>681.9219484638044</v>
+        <v>826.8778545394418</v>
       </c>
       <c r="AD5" t="n">
-        <v>550976.4372864892</v>
+        <v>668097.30261882</v>
       </c>
       <c r="AE5" t="n">
-        <v>753870.2688602607</v>
+        <v>914120.2038158649</v>
       </c>
       <c r="AF5" t="n">
         <v>6.402267342255189e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.02604166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>681921.9484638043</v>
+        <v>826877.8545394419</v>
       </c>
     </row>
   </sheetData>
@@ -7111,28 +7111,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>711.1932170393853</v>
+        <v>863.4417690589778</v>
       </c>
       <c r="AB2" t="n">
-        <v>973.0859351836424</v>
+        <v>1181.399120788921</v>
       </c>
       <c r="AC2" t="n">
-        <v>880.2159792644027</v>
+        <v>1068.648046804906</v>
       </c>
       <c r="AD2" t="n">
-        <v>711193.2170393853</v>
+        <v>863441.7690589778</v>
       </c>
       <c r="AE2" t="n">
-        <v>973085.9351836424</v>
+        <v>1181399.120788921</v>
       </c>
       <c r="AF2" t="n">
         <v>6.226962069464694e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.07682291666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>880215.9792644026</v>
+        <v>1068648.046804906</v>
       </c>
     </row>
     <row r="3">
@@ -7217,28 +7217,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>513.6175315901038</v>
+        <v>637.3068576420782</v>
       </c>
       <c r="AB3" t="n">
-        <v>702.754165927868</v>
+        <v>871.9913586201239</v>
       </c>
       <c r="AC3" t="n">
-        <v>635.6842946533781</v>
+        <v>788.7697272009769</v>
       </c>
       <c r="AD3" t="n">
-        <v>513617.5315901038</v>
+        <v>637306.8576420782</v>
       </c>
       <c r="AE3" t="n">
-        <v>702754.165927868</v>
+        <v>871991.3586201239</v>
       </c>
       <c r="AF3" t="n">
         <v>7.607356371042505e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.25651041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>635684.2946533781</v>
+        <v>788769.7272009769</v>
       </c>
     </row>
   </sheetData>
@@ -7514,28 +7514,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>532.007195369094</v>
+        <v>663.5529427224449</v>
       </c>
       <c r="AB2" t="n">
-        <v>727.91571520499</v>
+        <v>907.9024101226353</v>
       </c>
       <c r="AC2" t="n">
-        <v>658.4444609819478</v>
+        <v>821.253478349566</v>
       </c>
       <c r="AD2" t="n">
-        <v>532007.195369094</v>
+        <v>663552.9427224449</v>
       </c>
       <c r="AE2" t="n">
-        <v>727915.71520499</v>
+        <v>907902.4101226353</v>
       </c>
       <c r="AF2" t="n">
         <v>8.070952290586106e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.14453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>658444.4609819478</v>
+        <v>821253.478349566</v>
       </c>
     </row>
     <row r="3">
@@ -7620,28 +7620,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>508.2252224965381</v>
+        <v>639.7368044311083</v>
       </c>
       <c r="AB3" t="n">
-        <v>695.3761707341638</v>
+        <v>875.3161190185615</v>
       </c>
       <c r="AC3" t="n">
-        <v>629.0104449658797</v>
+        <v>791.7771771333179</v>
       </c>
       <c r="AD3" t="n">
-        <v>508225.2224965381</v>
+        <v>639736.8044311083</v>
       </c>
       <c r="AE3" t="n">
-        <v>695376.1707341638</v>
+        <v>875316.1190185614</v>
       </c>
       <c r="AF3" t="n">
         <v>8.290396787464237e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.39583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>629010.4449658798</v>
+        <v>791777.1771333179</v>
       </c>
     </row>
   </sheetData>
@@ -12946,28 +12946,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>510.0350313586275</v>
+        <v>649.5903772046312</v>
       </c>
       <c r="AB2" t="n">
-        <v>697.8524310624064</v>
+        <v>888.7982119962459</v>
       </c>
       <c r="AC2" t="n">
-        <v>631.2503744838482</v>
+        <v>803.9725580794487</v>
       </c>
       <c r="AD2" t="n">
-        <v>510035.0313586275</v>
+        <v>649590.3772046312</v>
       </c>
       <c r="AE2" t="n">
-        <v>697852.4310624064</v>
+        <v>888798.2119962459</v>
       </c>
       <c r="AF2" t="n">
         <v>8.815228094484347e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.93880208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>631250.3744838482</v>
+        <v>803972.5580794488</v>
       </c>
     </row>
   </sheetData>
@@ -13243,28 +13243,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>584.1513788724228</v>
+        <v>748.1687717853387</v>
       </c>
       <c r="AB2" t="n">
-        <v>799.261687513264</v>
+        <v>1023.677520433404</v>
       </c>
       <c r="AC2" t="n">
-        <v>722.981273827821</v>
+        <v>925.9791746236625</v>
       </c>
       <c r="AD2" t="n">
-        <v>584151.3788724229</v>
+        <v>748168.7717853386</v>
       </c>
       <c r="AE2" t="n">
-        <v>799261.6875132639</v>
+        <v>1023677.520433404</v>
       </c>
       <c r="AF2" t="n">
         <v>9.568536567058402e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.26041666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>722981.273827821</v>
+        <v>925979.1746236625</v>
       </c>
     </row>
   </sheetData>
@@ -13540,28 +13540,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>913.727188536095</v>
+        <v>1096.379806542956</v>
       </c>
       <c r="AB2" t="n">
-        <v>1250.20185015365</v>
+        <v>1500.115220175434</v>
       </c>
       <c r="AC2" t="n">
-        <v>1130.884340244302</v>
+        <v>1356.946328986825</v>
       </c>
       <c r="AD2" t="n">
-        <v>913727.188536095</v>
+        <v>1096379.806542956</v>
       </c>
       <c r="AE2" t="n">
-        <v>1250201.85015365</v>
+        <v>1500115.220175434</v>
       </c>
       <c r="AF2" t="n">
         <v>4.984976419279804e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.35416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1130884.340244302</v>
+        <v>1356946.328986825</v>
       </c>
     </row>
     <row r="3">
@@ -13646,28 +13646,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>550.7322902080782</v>
+        <v>675.7306278991974</v>
       </c>
       <c r="AB3" t="n">
-        <v>753.53621605657</v>
+        <v>924.5644562230212</v>
       </c>
       <c r="AC3" t="n">
-        <v>681.6197771908518</v>
+        <v>836.3253221554595</v>
       </c>
       <c r="AD3" t="n">
-        <v>550732.2902080782</v>
+        <v>675730.6278991974</v>
       </c>
       <c r="AE3" t="n">
-        <v>753536.2160565699</v>
+        <v>924564.4562230213</v>
       </c>
       <c r="AF3" t="n">
         <v>6.885208118503791e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.32161458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>681619.7771908517</v>
+        <v>836325.3221554596</v>
       </c>
     </row>
     <row r="4">
@@ -13752,28 +13752,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>521.254085906209</v>
+        <v>646.3197434050325</v>
       </c>
       <c r="AB4" t="n">
-        <v>713.2028364441622</v>
+        <v>884.3231865414551</v>
       </c>
       <c r="AC4" t="n">
-        <v>645.1357587203984</v>
+        <v>799.9246227733255</v>
       </c>
       <c r="AD4" t="n">
-        <v>521254.085906209</v>
+        <v>646319.7434050324</v>
       </c>
       <c r="AE4" t="n">
-        <v>713202.8364441623</v>
+        <v>884323.1865414551</v>
       </c>
       <c r="AF4" t="n">
         <v>7.079796744017646e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.59895833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>645135.7587203984</v>
+        <v>799924.6227733255</v>
       </c>
     </row>
   </sheetData>
@@ -14049,28 +14049,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1269.333935863533</v>
+        <v>1483.431684082166</v>
       </c>
       <c r="AB2" t="n">
-        <v>1736.758690109521</v>
+        <v>2029.696674548288</v>
       </c>
       <c r="AC2" t="n">
-        <v>1571.004878281598</v>
+        <v>1835.985272626573</v>
       </c>
       <c r="AD2" t="n">
-        <v>1269333.935863533</v>
+        <v>1483431.684082166</v>
       </c>
       <c r="AE2" t="n">
-        <v>1736758.690109521</v>
+        <v>2029696.674548288</v>
       </c>
       <c r="AF2" t="n">
         <v>3.794046228428769e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.1640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1571004.878281598</v>
+        <v>1835985.272626573</v>
       </c>
     </row>
     <row r="3">
@@ -14155,28 +14155,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>682.3470017468801</v>
+        <v>828.3577682224983</v>
       </c>
       <c r="AB3" t="n">
-        <v>933.6172708152344</v>
+        <v>1133.395643047571</v>
       </c>
       <c r="AC3" t="n">
-        <v>844.5141488286969</v>
+        <v>1025.225953605886</v>
       </c>
       <c r="AD3" t="n">
-        <v>682347.0017468801</v>
+        <v>828357.7682224982</v>
       </c>
       <c r="AE3" t="n">
-        <v>933617.2708152344</v>
+        <v>1133395.643047571</v>
       </c>
       <c r="AF3" t="n">
         <v>5.688428125020764e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.7890625</v>
       </c>
       <c r="AH3" t="n">
-        <v>844514.1488286969</v>
+        <v>1025225.953605886</v>
       </c>
     </row>
     <row r="4">
@@ -14261,28 +14261,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>555.9259817243291</v>
+        <v>682.3967708063228</v>
       </c>
       <c r="AB4" t="n">
-        <v>760.6424539186028</v>
+        <v>933.6853670380196</v>
       </c>
       <c r="AC4" t="n">
-        <v>688.0478056849997</v>
+        <v>844.5757460435533</v>
       </c>
       <c r="AD4" t="n">
-        <v>555925.9817243291</v>
+        <v>682396.7708063228</v>
       </c>
       <c r="AE4" t="n">
-        <v>760642.4539186028</v>
+        <v>933685.3670380197</v>
       </c>
       <c r="AF4" t="n">
         <v>6.432999949999161e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.45572916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>688047.8056849997</v>
+        <v>844575.7460435533</v>
       </c>
     </row>
     <row r="5">
@@ -14367,28 +14367,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>545.5648789231717</v>
+        <v>672.0356680051655</v>
       </c>
       <c r="AB5" t="n">
-        <v>746.4659359664643</v>
+        <v>919.5088490858811</v>
       </c>
       <c r="AC5" t="n">
-        <v>675.2242747093453</v>
+        <v>831.7522150678989</v>
       </c>
       <c r="AD5" t="n">
-        <v>545564.8789231717</v>
+        <v>672035.6680051654</v>
       </c>
       <c r="AE5" t="n">
-        <v>746465.9359664642</v>
+        <v>919508.8490858811</v>
       </c>
       <c r="AF5" t="n">
         <v>6.520537448341215e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.1171875</v>
       </c>
       <c r="AH5" t="n">
-        <v>675224.2747093453</v>
+        <v>831752.2150678989</v>
       </c>
     </row>
   </sheetData>
@@ -14664,28 +14664,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>672.8603865379574</v>
+        <v>871.3774617629089</v>
       </c>
       <c r="AB2" t="n">
-        <v>920.6372653664611</v>
+        <v>1192.257085644493</v>
       </c>
       <c r="AC2" t="n">
-        <v>832.7729368824025</v>
+        <v>1078.469742733911</v>
       </c>
       <c r="AD2" t="n">
-        <v>672860.3865379575</v>
+        <v>871377.4617629088</v>
       </c>
       <c r="AE2" t="n">
-        <v>920637.265366461</v>
+        <v>1192257.085644493</v>
       </c>
       <c r="AF2" t="n">
         <v>9.404342305278484e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.24609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>832772.9368824025</v>
+        <v>1078469.742733911</v>
       </c>
     </row>
   </sheetData>
@@ -14961,28 +14961,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>585.031413999978</v>
+        <v>726.5765466812109</v>
       </c>
       <c r="AB2" t="n">
-        <v>800.4657903991947</v>
+        <v>994.1340854641944</v>
       </c>
       <c r="AC2" t="n">
-        <v>724.0704588242877</v>
+        <v>899.255323623443</v>
       </c>
       <c r="AD2" t="n">
-        <v>585031.413999978</v>
+        <v>726576.5466812109</v>
       </c>
       <c r="AE2" t="n">
-        <v>800465.7903991947</v>
+        <v>994134.0854641944</v>
       </c>
       <c r="AF2" t="n">
         <v>7.378748680264879e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.35546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>724070.4588242878</v>
+        <v>899255.323623443</v>
       </c>
     </row>
     <row r="3">
@@ -15067,28 +15067,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>503.4505431310729</v>
+        <v>635.6198877594956</v>
       </c>
       <c r="AB3" t="n">
-        <v>688.8432437823473</v>
+        <v>869.6831720029159</v>
       </c>
       <c r="AC3" t="n">
-        <v>623.1010113933241</v>
+        <v>786.6818306749548</v>
       </c>
       <c r="AD3" t="n">
-        <v>503450.5431310729</v>
+        <v>635619.8877594955</v>
       </c>
       <c r="AE3" t="n">
-        <v>688843.2437823473</v>
+        <v>869683.1720029159</v>
       </c>
       <c r="AF3" t="n">
         <v>8.043132156277728e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.92708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>623101.0113933241</v>
+        <v>786681.8306749548</v>
       </c>
     </row>
   </sheetData>
@@ -15364,28 +15364,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>772.2851494774146</v>
+        <v>934.6177793860066</v>
       </c>
       <c r="AB2" t="n">
-        <v>1056.674612331197</v>
+        <v>1278.785278182323</v>
       </c>
       <c r="AC2" t="n">
-        <v>955.8270703824394</v>
+        <v>1156.739806019011</v>
       </c>
       <c r="AD2" t="n">
-        <v>772285.1494774147</v>
+        <v>934617.7793860066</v>
       </c>
       <c r="AE2" t="n">
-        <v>1056674.612331197</v>
+        <v>1278785.278182323</v>
       </c>
       <c r="AF2" t="n">
         <v>5.763655645286048e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.46354166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>955827.0703824394</v>
+        <v>1156739.806019011</v>
       </c>
     </row>
     <row r="3">
@@ -15470,28 +15470,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>519.1954284618485</v>
+        <v>643.3424319927325</v>
       </c>
       <c r="AB3" t="n">
-        <v>710.3860905072316</v>
+        <v>880.249497717437</v>
       </c>
       <c r="AC3" t="n">
-        <v>642.5878390623607</v>
+        <v>796.2397210932137</v>
       </c>
       <c r="AD3" t="n">
-        <v>519195.4284618484</v>
+        <v>643342.4319927325</v>
       </c>
       <c r="AE3" t="n">
-        <v>710386.0905072317</v>
+        <v>880249.497717437</v>
       </c>
       <c r="AF3" t="n">
         <v>7.417566493745753e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.00260416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>642587.8390623607</v>
+        <v>796239.7210932137</v>
       </c>
     </row>
     <row r="4">
@@ -15576,28 +15576,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>520.7722636284399</v>
+        <v>644.9192671593239</v>
       </c>
       <c r="AB4" t="n">
-        <v>712.54358594722</v>
+        <v>882.4069931574253</v>
       </c>
       <c r="AC4" t="n">
-        <v>644.5394261656203</v>
+        <v>798.1913081964732</v>
       </c>
       <c r="AD4" t="n">
-        <v>520772.2636284399</v>
+        <v>644919.2671593239</v>
       </c>
       <c r="AE4" t="n">
-        <v>712543.58594722</v>
+        <v>882406.9931574253</v>
       </c>
       <c r="AF4" t="n">
         <v>7.416085291123095e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.00911458333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>644539.4261656203</v>
+        <v>798191.3081964732</v>
       </c>
     </row>
   </sheetData>
